--- a/app/OwnersReport.xlsx
+++ b/app/OwnersReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="240" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="180" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Platypus report layout template</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Full Name</t>
   </si>
@@ -83,15 +80,15 @@
       <family val="0"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="11"/>
+      <b val="true"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,12 +97,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCFF"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -113,6 +116,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -139,17 +149,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -169,75 +187,58 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50607287449393"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9068825910931"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3967611336032"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.080971659919"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.8421052631579"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1943319838057"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.2186234817814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8744939271255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4008097165992"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.6153846153846"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50607287449393"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
